--- a/teckwah_project/backend/app/data/dashboard.xlsx
+++ b/teckwah_project/backend/app/data/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\teackwah-dashboard\teckwah_project\backend\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB52B7F3-A8A5-4EA9-BD11-66056157828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98F3D7-3774-43AB-89C6-6BEED7559F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6283AF41-2751-4112-9FD5-D5F829A1E1E8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9944" uniqueCount="3067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10284" uniqueCount="3166">
   <si>
     <t>dashboard_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -9263,6 +9263,303 @@
   </si>
   <si>
     <t>01421</t>
+  </si>
+  <si>
+    <t>34047</t>
+  </si>
+  <si>
+    <t>13638</t>
+  </si>
+  <si>
+    <t>06675</t>
+  </si>
+  <si>
+    <t>10090</t>
+  </si>
+  <si>
+    <t>18448</t>
+  </si>
+  <si>
+    <t>14055</t>
+  </si>
+  <si>
+    <t>31044</t>
+  </si>
+  <si>
+    <t>24239</t>
+  </si>
+  <si>
+    <t>03178</t>
+  </si>
+  <si>
+    <t>30143</t>
+  </si>
+  <si>
+    <t>07803</t>
+  </si>
+  <si>
+    <t>61512</t>
+  </si>
+  <si>
+    <t>16878</t>
+  </si>
+  <si>
+    <t>04329</t>
+  </si>
+  <si>
+    <t>18487</t>
+  </si>
+  <si>
+    <t>16675</t>
+  </si>
+  <si>
+    <t>28117</t>
+  </si>
+  <si>
+    <t>62465</t>
+  </si>
+  <si>
+    <t>30137</t>
+  </si>
+  <si>
+    <t>10939</t>
+  </si>
+  <si>
+    <t>17332</t>
+  </si>
+  <si>
+    <t>17113</t>
+  </si>
+  <si>
+    <t>61004</t>
+  </si>
+  <si>
+    <t>13591</t>
+  </si>
+  <si>
+    <t>06711</t>
+  </si>
+  <si>
+    <t>13496</t>
+  </si>
+  <si>
+    <t>16895</t>
+  </si>
+  <si>
+    <t>16681</t>
+  </si>
+  <si>
+    <t>16006</t>
+  </si>
+  <si>
+    <t>30142</t>
+  </si>
+  <si>
+    <t>22502</t>
+  </si>
+  <si>
+    <t>10845</t>
+  </si>
+  <si>
+    <t>31248</t>
+  </si>
+  <si>
+    <t>18529</t>
+  </si>
+  <si>
+    <t>16079</t>
+  </si>
+  <si>
+    <t>03187</t>
+  </si>
+  <si>
+    <t>18469</t>
+  </si>
+  <si>
+    <t>35203</t>
+  </si>
+  <si>
+    <t>13449</t>
+  </si>
+  <si>
+    <t>53302</t>
+  </si>
+  <si>
+    <t>13809</t>
+  </si>
+  <si>
+    <t>13493</t>
+  </si>
+  <si>
+    <t>22856</t>
+  </si>
+  <si>
+    <t>12938</t>
+  </si>
+  <si>
+    <t>07806</t>
+  </si>
+  <si>
+    <t>21558</t>
+  </si>
+  <si>
+    <t>27465</t>
+  </si>
+  <si>
+    <t>06241</t>
+  </si>
+  <si>
+    <t>13438</t>
+  </si>
+  <si>
+    <t>13453</t>
+  </si>
+  <si>
+    <t>03161</t>
+  </si>
+  <si>
+    <t>24264</t>
+  </si>
+  <si>
+    <t>16648</t>
+  </si>
+  <si>
+    <t>16676</t>
+  </si>
+  <si>
+    <t>11447</t>
+  </si>
+  <si>
+    <t>13486</t>
+  </si>
+  <si>
+    <t>06303</t>
+  </si>
+  <si>
+    <t>17336</t>
+  </si>
+  <si>
+    <t>16677</t>
+  </si>
+  <si>
+    <t>16082</t>
+  </si>
+  <si>
+    <t>16865</t>
+  </si>
+  <si>
+    <t>22382</t>
+  </si>
+  <si>
+    <t>18488</t>
+  </si>
+  <si>
+    <t>16408</t>
+  </si>
+  <si>
+    <t>17096</t>
+  </si>
+  <si>
+    <t>10442</t>
+  </si>
+  <si>
+    <t>34132</t>
+  </si>
+  <si>
+    <t>16678</t>
+  </si>
+  <si>
+    <t>17018</t>
+  </si>
+  <si>
+    <t>13558</t>
+  </si>
+  <si>
+    <t>14057</t>
+  </si>
+  <si>
+    <t>16858</t>
+  </si>
+  <si>
+    <t>22770</t>
+  </si>
+  <si>
+    <t>13807</t>
+  </si>
+  <si>
+    <t>18449</t>
+  </si>
+  <si>
+    <t>13840</t>
+  </si>
+  <si>
+    <t>13488</t>
+  </si>
+  <si>
+    <t>22013</t>
+  </si>
+  <si>
+    <t>17558</t>
+  </si>
+  <si>
+    <t>44538</t>
+  </si>
+  <si>
+    <t>07327</t>
+  </si>
+  <si>
+    <t>06106</t>
+  </si>
+  <si>
+    <t>14068</t>
+  </si>
+  <si>
+    <t>13994</t>
+  </si>
+  <si>
+    <t>07212</t>
+  </si>
+  <si>
+    <t>22121</t>
+  </si>
+  <si>
+    <t>22014</t>
+  </si>
+  <si>
+    <t>62405</t>
+  </si>
+  <si>
+    <t>07789</t>
+  </si>
+  <si>
+    <t>04533</t>
+  </si>
+  <si>
+    <t>22760</t>
+  </si>
+  <si>
+    <t>39268</t>
+  </si>
+  <si>
+    <t>34124</t>
+  </si>
+  <si>
+    <t>06794</t>
+  </si>
+  <si>
+    <t>07795</t>
+  </si>
+  <si>
+    <t>11006</t>
+  </si>
+  <si>
+    <t>51776</t>
+  </si>
+  <si>
+    <t>31901</t>
+  </si>
+  <si>
+    <t>18571</t>
   </si>
 </sst>
 </file>
@@ -9678,10 +9975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFFC321-BB3D-4337-9A70-D9310490AA50}">
-  <dimension ref="A1:W2275"/>
+  <dimension ref="A1:W2616"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A2244" workbookViewId="0">
+      <selection activeCell="L2276" sqref="L2276:L2616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -65243,6 +65540,1711 @@
         <v>429470348</v>
       </c>
     </row>
+    <row r="2276" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2276" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2277" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2277" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2278" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2278" s="6" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2279" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2279" s="6" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="2280" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2280" s="6" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="2281" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2281" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2282" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2282" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2283" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2283" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2284" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2284" s="6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="2285" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2285" s="6" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="2286" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2286" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2287" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2287" s="6" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="2288" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2288" s="6" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2289" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2289" s="6" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="2290" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2290" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2291" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2291" s="6" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="2292" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2292" s="6" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="2293" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2293" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2294" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2294" s="6" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="2295" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2295" s="6" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="2296" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2296" s="6" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="2297" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2297" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2298" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2298" s="6" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="2299" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2299" s="6" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2300" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2300" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2301" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2301" s="6" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="2302" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2302" s="6" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="2303" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2303" s="6" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="2304" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2304" s="6" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="2305" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2305" s="6" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="2306" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2306" s="6" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="2307" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2307" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2308" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2308" s="6" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="2309" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2309" s="6" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="2310" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2310" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2311" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2311" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2312" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2312" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2313" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2313" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2314" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2314" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2315" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2315" s="6" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="2316" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2316" s="6" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="2317" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2317" s="6" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="2318" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2318" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2319" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2319" s="6" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="2320" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2320" s="6" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="2321" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2321" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2322" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2322" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2323" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2323" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2324" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2324" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2325" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2325" s="6" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="2326" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2326" s="6" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="2327" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2327" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2328" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2328" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2329" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2329" s="6" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="2330" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2330" s="6" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="2331" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2331" s="6" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="2332" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2332" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2333" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2333" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2334" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2334" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2335" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2335" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2336" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2336" s="6" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2337" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2337" s="6" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="2338" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2338" s="6" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2339" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2339" s="6" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="2340" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2340" s="6" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2341" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2341" s="6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="2342" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2342" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2343" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2343" s="6" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="2344" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2344" s="6" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="2345" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2345" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2346" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2346" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2347" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2347" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2348" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2348" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2349" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2349" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2350" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2350" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2351" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2351" s="6" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="2352" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2352" s="6" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="2353" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2353" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2354" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2354" s="6" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="2355" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2355" s="6" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="2356" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2356" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2357" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2357" s="6" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="2358" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2358" s="6" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2359" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2359" s="6" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="2360" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2360" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2361" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2361" s="6" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="2362" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2362" s="6" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="2363" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2363" s="6" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="2364" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2364" s="6" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="2365" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2365" s="6" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="2366" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2366" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2367" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2367" s="6" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2368" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2368" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2369" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2369" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2370" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2370" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2371" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2371" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2372" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2372" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2373" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2373" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2374" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2374" s="6" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="2375" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2375" s="6" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="2376" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2376" s="6" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2377" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2377" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2378" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2378" s="6" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="2379" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2379" s="6" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="2380" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2380" s="6" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="2381" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2381" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2382" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2382" s="6" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2383" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2383" s="6" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="2384" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2384" s="6" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="2385" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2385" s="6" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="2386" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2386" s="6" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="2387" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2387" s="6" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="2388" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2388" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2389" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2389" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2390" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2390" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2391" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2391" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2392" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2392" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2393" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2393" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2394" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2394" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2395" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2395" s="6" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="2396" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2396" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2397" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2397" s="6" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="2398" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2398" s="6" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="2399" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2399" s="6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="2400" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2400" s="6" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="2401" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2401" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2402" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2402" s="6" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="2403" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2403" s="6" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="2404" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2404" s="6" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="2405" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2405" s="6" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="2406" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2406" s="6" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2407" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2407" s="6" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2408" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2408" s="6" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="2409" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2409" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2410" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2410" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2411" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2411" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2412" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2412" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2413" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2413" s="6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="2414" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2414" s="6" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="2415" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2415" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2416" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2416" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2417" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2417" s="6" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="2418" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2418" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2419" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2419" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2420" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2420" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2421" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2421" s="6" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="2422" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2422" s="6" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="2423" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2423" s="6" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="2424" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2424" s="6" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2425" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2425" s="6" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="2426" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2426" s="6" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="2427" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2427" s="6" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2428" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2428" s="6" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2429" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2429" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2430" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2430" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2431" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2431" s="6" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="2432" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2432" s="6" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="2433" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2433" s="6" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="2434" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2434" s="6" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="2435" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2435" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2436" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2436" s="6" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="2437" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2437" s="6" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="2438" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2438" s="6" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="2439" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2439" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2440" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2440" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2441" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2441" s="6" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2442" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2442" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2443" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2443" s="6" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="2444" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2444" s="6" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="2445" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2445" s="6" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="2446" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2446" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2447" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2447" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2448" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2448" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2449" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2449" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2450" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2450" s="6" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2451" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2451" s="6" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2452" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2452" s="6" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2453" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2453" s="6" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2454" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2454" s="6" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2455" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2455" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2456" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2456" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2457" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2457" s="6" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="2458" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2458" s="6" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="2459" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2459" s="6" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="2460" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2460" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2461" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2461" s="6" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="2462" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2462" s="6" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="2463" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2463" s="6" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="2464" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2464" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2465" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2465" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2466" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2466" s="6" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="2467" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2467" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2468" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2468" s="6" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="2469" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2469" s="6" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2470" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2470" s="6" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="2471" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2471" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2472" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2472" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2473" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2473" s="6" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="2474" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2474" s="6" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="2475" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2475" s="6" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2476" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2476" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2477" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2477" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2478" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2478" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2479" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2479" s="6" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2480" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2480" s="6" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2481" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2481" s="6" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="2482" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2482" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2483" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2483" s="6" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="2484" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2484" s="6" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="2485" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2485" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2486" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2486" s="6" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2487" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2487" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2488" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2488" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2489" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2489" s="6" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="2490" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2490" s="6" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="2491" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2491" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2492" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2492" s="6" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="2493" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2493" s="6" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="2494" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2494" s="6" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="2495" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2495" s="6" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="2496" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2496" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2497" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2497" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2498" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2498" s="6" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="2499" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2499" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2500" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2500" s="6" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="2501" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2501" s="6" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2502" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2502" s="6" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="2503" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2503" s="6" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="2504" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2504" s="6" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="2505" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2505" s="6" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="2506" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2506" s="6" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="2507" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2507" s="6" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="2508" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2508" s="6" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="2509" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2509" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2510" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2510" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2511" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2511" s="6" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="2512" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2512" s="6" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="2513" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2513" s="6" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="2514" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2514" s="6" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="2515" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2515" s="6" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="2516" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2516" s="6" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="2517" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2517" s="6" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="2518" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2518" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2519" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2519" s="6" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2520" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2520" s="6" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="2521" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2521" s="6" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="2522" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2522" s="6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="2523" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2523" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2524" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2524" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2525" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2525" s="6" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="2526" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2526" s="6" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="2527" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2527" s="6" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2528" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2528" s="6" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="2529" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2529" s="6" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="2530" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2530" s="6" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="2531" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2531" s="6" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2532" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2532" s="6" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="2533" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2533" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2534" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2534" s="6" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="2535" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2535" s="6" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="2536" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2536" s="6" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="2537" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2537" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2538" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2538" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2539" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2539" s="6" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="2540" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2540" s="6" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="2541" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2541" s="6" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="2542" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2542" s="6" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="2543" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2543" s="6" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="2544" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2544" s="6" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="2545" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2545" s="6" t="s">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="2546" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2546" s="6" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="2547" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2547" s="6" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="2548" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2548" s="6" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="2549" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2549" s="6" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2550" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2550" s="6" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="2551" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2551" s="6" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="2552" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2552" s="6" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="2553" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2553" s="6" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="2554" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2554" s="6" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="2555" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2555" s="6" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2556" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2556" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2557" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2557" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2558" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2558" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2559" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2559" s="6" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="2560" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2560" s="6" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2561" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2561" s="6" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="2562" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2562" s="6" t="s">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="2563" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2563" s="6" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="2564" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2564" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2565" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2565" s="6" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="2566" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2566" s="6" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="2567" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2567" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2568" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2568" s="6" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2569" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2569" s="6" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="2570" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2570" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2571" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2571" s="6" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="2572" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2572" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2573" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2573" s="6" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="2574" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2574" s="6" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="2575" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2575" s="6" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="2576" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2576" s="6" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="2577" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2577" s="6" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="2578" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2578" s="6" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="2579" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2579" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2580" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2580" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2581" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2581" s="6" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="2582" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2582" s="6" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="2583" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2583" s="6" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="2584" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2584" s="6" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2585" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2585" s="6" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="2586" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2586" s="6" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="2587" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2587" s="6" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="2588" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2588" s="6" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="2589" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2589" s="6" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="2590" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2590" s="6" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="2591" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2591" s="6" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="2592" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2592" s="6" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="2593" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2593" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2594" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2594" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2595" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2595" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2596" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2596" s="6" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2597" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2597" s="6" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="2598" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2598" s="6" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="2599" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2599" s="6" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="2600" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2600" s="6" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="2601" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2601" s="6">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="2602" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2602" s="6" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="2603" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2603" s="6" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="2604" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2604" s="6" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="2605" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2605" s="6" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="2606" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2606" s="6" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="2607" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2607" s="6" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="2608" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2608" s="6" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="2609" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2609" s="6" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="2610" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2610" s="6" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="2611" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2611" s="6" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="2612" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2612" s="6" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="2613" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2613" s="6" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="2614" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2614" s="6" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="2615" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2615" s="6" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="2616" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L2616" s="6" t="s">
+        <v>3165</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{EBFFC321-BB3D-4337-9A70-D9310490AA50}"/>
   <phoneticPr fontId="1" type="noConversion"/>
